--- a/RESULTS/SET 1 [0..5] Single/070.0%/BE.xlsx
+++ b/RESULTS/SET 1 [0..5] Single/070.0%/BE.xlsx
@@ -17,9 +17,6 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="7" sheetId="9" state="visible" r:id="rId9"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="6" sheetId="10" state="visible" r:id="rId10"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2" sheetId="14" state="visible" r:id="rId14"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>Feature index</t>
   </si>
@@ -110,187 +107,169 @@
     <t>001101</t>
   </si>
   <si>
+    <t>140055</t>
+  </si>
+  <si>
+    <t>014100</t>
+  </si>
+  <si>
+    <t>021155</t>
+  </si>
+  <si>
+    <t>H-H</t>
+  </si>
+  <si>
+    <t>002111</t>
+  </si>
+  <si>
+    <t>051155</t>
+  </si>
+  <si>
+    <t>005111</t>
+  </si>
+  <si>
+    <t>071155</t>
+  </si>
+  <si>
+    <t>007111</t>
+  </si>
+  <si>
+    <t>041155</t>
+  </si>
+  <si>
+    <t>004111</t>
+  </si>
+  <si>
+    <t>101155</t>
+  </si>
+  <si>
+    <t>010111</t>
+  </si>
+  <si>
+    <t>121155</t>
+  </si>
+  <si>
+    <t>012111</t>
+  </si>
+  <si>
+    <t>150155</t>
+  </si>
+  <si>
+    <t>015101</t>
+  </si>
+  <si>
+    <t>140155</t>
+  </si>
+  <si>
+    <t>014101</t>
+  </si>
+  <si>
+    <t>130155</t>
+  </si>
+  <si>
+    <t>013101</t>
+  </si>
+  <si>
+    <t>120155</t>
+  </si>
+  <si>
+    <t>012101</t>
+  </si>
+  <si>
+    <t>110155</t>
+  </si>
+  <si>
+    <t>011101</t>
+  </si>
+  <si>
+    <t>100155</t>
+  </si>
+  <si>
+    <t>010101</t>
+  </si>
+  <si>
+    <t>031155</t>
+  </si>
+  <si>
+    <t>003111</t>
+  </si>
+  <si>
+    <t>061155</t>
+  </si>
+  <si>
+    <t>006111</t>
+  </si>
+  <si>
+    <t>090155</t>
+  </si>
+  <si>
+    <t>009101</t>
+  </si>
+  <si>
+    <t>130055</t>
+  </si>
+  <si>
+    <t>013100</t>
+  </si>
+  <si>
+    <t>091155</t>
+  </si>
+  <si>
+    <t>009111</t>
+  </si>
+  <si>
+    <t>141155</t>
+  </si>
+  <si>
+    <t>014111</t>
+  </si>
+  <si>
+    <t>151155</t>
+  </si>
+  <si>
+    <t>015111</t>
+  </si>
+  <si>
+    <t>070155</t>
+  </si>
+  <si>
+    <t>007101</t>
+  </si>
+  <si>
+    <t>060155</t>
+  </si>
+  <si>
+    <t>006101</t>
+  </si>
+  <si>
+    <t>081155</t>
+  </si>
+  <si>
+    <t>008111</t>
+  </si>
+  <si>
+    <t>110055</t>
+  </si>
+  <si>
+    <t>011100</t>
+  </si>
+  <si>
+    <t>150055</t>
+  </si>
+  <si>
+    <t>015100</t>
+  </si>
+  <si>
     <t>011155</t>
   </si>
   <si>
-    <t>H-H</t>
-  </si>
-  <si>
     <t>001111</t>
   </si>
   <si>
-    <t>111155</t>
-  </si>
-  <si>
-    <t>011111</t>
-  </si>
-  <si>
-    <t>121155</t>
-  </si>
-  <si>
-    <t>012111</t>
-  </si>
-  <si>
-    <t>040155</t>
-  </si>
-  <si>
-    <t>004101</t>
-  </si>
-  <si>
-    <t>131155</t>
-  </si>
-  <si>
-    <t>013111</t>
-  </si>
-  <si>
-    <t>141155</t>
-  </si>
-  <si>
-    <t>014111</t>
-  </si>
-  <si>
-    <t>151155</t>
-  </si>
-  <si>
-    <t>015111</t>
-  </si>
-  <si>
-    <t>020155</t>
-  </si>
-  <si>
-    <t>002101</t>
-  </si>
-  <si>
-    <t>070155</t>
-  </si>
-  <si>
-    <t>007101</t>
-  </si>
-  <si>
-    <t>031155</t>
-  </si>
-  <si>
-    <t>003111</t>
-  </si>
-  <si>
-    <t>130055</t>
-  </si>
-  <si>
-    <t>013100</t>
-  </si>
-  <si>
-    <t>040055</t>
-  </si>
-  <si>
-    <t>004100</t>
-  </si>
-  <si>
-    <t>150055</t>
-  </si>
-  <si>
-    <t>015100</t>
-  </si>
-  <si>
-    <t>030155</t>
-  </si>
-  <si>
-    <t>003101</t>
-  </si>
-  <si>
-    <t>050055</t>
-  </si>
-  <si>
-    <t>005100</t>
-  </si>
-  <si>
-    <t>030055</t>
-  </si>
-  <si>
-    <t>003100</t>
-  </si>
-  <si>
-    <t>051155</t>
-  </si>
-  <si>
-    <t>005111</t>
-  </si>
-  <si>
     <t>090055</t>
   </si>
   <si>
     <t>009100</t>
-  </si>
-  <si>
-    <t>070055</t>
-  </si>
-  <si>
-    <t>007100</t>
-  </si>
-  <si>
-    <t>101155</t>
-  </si>
-  <si>
-    <t>010111</t>
-  </si>
-  <si>
-    <t>091155</t>
-  </si>
-  <si>
-    <t>009111</t>
-  </si>
-  <si>
-    <t>021155</t>
-  </si>
-  <si>
-    <t>002111</t>
-  </si>
-  <si>
-    <t>150155</t>
-  </si>
-  <si>
-    <t>015101</t>
-  </si>
-  <si>
-    <t>120055</t>
-  </si>
-  <si>
-    <t>012100</t>
-  </si>
-  <si>
-    <t>140055</t>
-  </si>
-  <si>
-    <t>014100</t>
-  </si>
-  <si>
-    <t>060055</t>
-  </si>
-  <si>
-    <t>006100</t>
-  </si>
-  <si>
-    <t>080055</t>
-  </si>
-  <si>
-    <t>008100</t>
-  </si>
-  <si>
-    <t>081155</t>
-  </si>
-  <si>
-    <t>008111</t>
-  </si>
-  <si>
-    <t>110055</t>
-  </si>
-  <si>
-    <t>011100</t>
-  </si>
-  <si>
-    <t>100055</t>
-  </si>
-  <si>
-    <t>010100</t>
   </si>
 </sst>
 </file>
@@ -738,27 +717,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.3034325665159213</v>
+        <v>0.2223610928756539</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.01792063098566e-07</v>
+        <v>3.645252053640919e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006338706990377186</v>
+        <v>0.0006037592279742745</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9184505407415244</v>
+        <v>0.9287951768714864</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9158698616510663</v>
+        <v>0.9265418596838753</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>68.85461843955551</v>
+        <v>51.46882510725185</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -791,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.215985316475085</v>
+        <v>-0.1057166988185126</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -810,31 +789,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>27</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
         <v>28</v>
       </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.1134840307489094</v>
+        <v>5663.184577903402</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -853,16 +832,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
-        <v>28</v>
-      </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-2</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
@@ -877,7 +856,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>37675.2421357096</v>
+        <v>0.4959486277618565</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -896,16 +875,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
         <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -920,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-281723.9669268745</v>
+        <v>45.28769546305677</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -939,16 +918,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -963,7 +942,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-0.5423408279804089</v>
+        <v>-125.122684140041</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -982,16 +961,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-4</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
@@ -1006,7 +985,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>798934.0330101952</v>
+        <v>-14.14882596346177</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -1025,16 +1004,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
         <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
@@ -1049,7 +1028,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1014839.287020375</v>
+        <v>565.9672337342073</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -1068,16 +1047,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C10" t="s">
         <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-15</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
@@ -1092,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>486017.2726386665</v>
+        <v>-832.5140849321476</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -1111,7 +1090,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
@@ -1120,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-2</v>
+        <v>-15</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
@@ -1135,7 +1114,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2483532834448852</v>
+        <v>286199.1700199298</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -1154,7 +1133,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
@@ -1163,7 +1142,7 @@
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-7</v>
+        <v>-14</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
@@ -1178,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.004300927510485</v>
+        <v>-749041.8020465513</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -1197,16 +1176,16 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>46</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-3</v>
+        <v>-13</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
@@ -1221,7 +1200,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-0.4217593936482444</v>
+        <v>780917.42697554</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1240,16 +1219,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
         <v>48</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
@@ -1258,13 +1237,13 @@
         <v>49</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>23843.46593512125</v>
+        <v>-405569.0577384521</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -1283,16 +1262,16 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>50</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-4</v>
+        <v>-11</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
@@ -1301,13 +1280,13 @@
         <v>51</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-1.159649283858016</v>
+        <v>105017.9847152183</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -1326,16 +1305,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E16" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="F16" t="s">
         <v>22</v>
@@ -1344,13 +1323,13 @@
         <v>53</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I16" t="n">
         <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>-126111.1588366611</v>
+        <v>-10863.72996938173</v>
       </c>
       <c r="K16" t="s"/>
       <c r="L16" t="s"/>
@@ -1450,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -1465,36 +1444,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1156951414261519</v>
+        <v>0.2352895028676416</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.649264072983397e-07</v>
+        <v>4.033460109509707e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006818551219271875</v>
+        <v>0.0006350952770655523</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9056365204982549</v>
+        <v>0.9212120837003045</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9044643033615873</v>
+        <v>0.9202333518208052</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>145.5494696101407</v>
+        <v>98.66171967935355</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1503,13 +1482,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1518,16 +1497,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.237077218872123</v>
+        <v>-0.117075890277673</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1549,10 +1528,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -1561,7 +1540,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -1570,7 +1549,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05641507399573528</v>
+        <v>0.05837921513061956</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1589,22 +1568,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1613,7 +1592,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>3101.168005703392</v>
+        <v>26270.17923571029</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1632,22 +1611,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -1656,7 +1635,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1090.287785015711</v>
+        <v>-39.3789953568826</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -1675,22 +1654,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-3</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -1699,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.146026503780227</v>
+        <v>-0.004883167341870832</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -1823,27 +1802,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1173045474724897</v>
+        <v>-0.1155951082174596</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.683557028895784e-07</v>
+        <v>4.057415519075094e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000684365182405986</v>
+        <v>0.0006369784548220681</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9049404957959591</v>
+        <v>0.9207441487877185</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9039584761244298</v>
+        <v>0.9199253899942031</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>149.446596400676</v>
+        <v>101.2851383363272</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -1855,10 +1834,10 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -1867,7 +1846,7 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -1876,7 +1855,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.05736188892919956</v>
+        <v>0.05644053135223455</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -1919,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2399499155054794</v>
+        <v>0.2363108903793465</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -1938,22 +1917,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -1962,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1573.244034814332</v>
+        <v>5889.51077088376</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -1984,7 +1963,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -1996,7 +1975,7 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -2005,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-193.1438977246577</v>
+        <v>-89.09650848829253</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2018,666 +1997,6 @@
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
       <c r="U6" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.1305366958417758</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>6.105242049201546e-07</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.0007813604833366956</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.8760853601947942</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.8750633837840296</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>340.2057206944652</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.0638888181478687</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.2648410599896774</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="n">
-        <v>-15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>13020.07523270878</v>
-      </c>
-      <c r="K5" t="s"/>
-      <c r="L5" t="s"/>
-      <c r="M5" t="s"/>
-      <c r="N5" t="s"/>
-      <c r="O5" t="s"/>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
-      <c r="S5" t="s"/>
-      <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.08023094325130609</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>1.167609417812493e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001080559770587677</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.7630169299179168</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.7615540714606199</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>1091.67951427594</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.03910269081994067</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.1631938934206404</v>
-      </c>
-      <c r="K4" t="s"/>
-      <c r="L4" t="s"/>
-      <c r="M4" t="s"/>
-      <c r="N4" t="s"/>
-      <c r="O4" t="s"/>
-      <c r="P4" t="s"/>
-      <c r="Q4" t="s"/>
-      <c r="R4" t="s"/>
-      <c r="S4" t="s"/>
-      <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:U3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:21">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>16</v>
-      </c>
-      <c r="C2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="n">
-        <v>-2</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>-0.01596969206171032</v>
-      </c>
-      <c r="K2" t="s"/>
-      <c r="L2" t="n">
-        <v>2.169268311370037e-06</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.001472843614023579</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.559715897784233</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.5579077495205133</v>
-      </c>
-      <c r="P2" t="s"/>
-      <c r="Q2" t="s"/>
-      <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
-      <c r="T2" t="n">
-        <v>2447.421240474822</v>
-      </c>
-      <c r="U2" t="s"/>
-    </row>
-    <row r="3" spans="1:21">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>30</v>
-      </c>
-      <c r="C3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" t="n">
-        <v>-1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="n">
-        <v>4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.003519630951547308</v>
-      </c>
-      <c r="K3" t="s"/>
-      <c r="L3" t="s"/>
-      <c r="M3" t="s"/>
-      <c r="N3" t="s"/>
-      <c r="O3" t="s"/>
-      <c r="P3" t="s"/>
-      <c r="Q3" t="s"/>
-      <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
-      <c r="T3" t="s"/>
-      <c r="U3" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2765,13 +2084,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -2780,36 +2099,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08812670931360912</v>
+        <v>0.2337486394435533</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.054176598960207e-07</v>
+        <v>3.718509156055243e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006367241631161964</v>
+        <v>0.0006097957982845768</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9177146738952717</v>
+        <v>0.9273642033904869</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9152894221785008</v>
+        <v>0.9252233588588381</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>72.75019724820436</v>
+        <v>60.84601567448613</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -2842,7 +2161,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.239256018713881</v>
+        <v>-0.1207065917744994</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -2861,22 +2180,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-7</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -2885,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6226384973215382</v>
+        <v>0.808229497750341</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -2904,31 +2223,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0.4334165748904222</v>
+        <v>-2.86441393901199</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -2947,22 +2266,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-3</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -2971,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-0.4923524720813391</v>
+        <v>88.68257719625942</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -2990,31 +2309,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" t="n">
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>8.144809060645281</v>
+        <v>-206.4892126040495</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3033,31 +2352,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4140899162577439</v>
+        <v>5451.807214493882</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3076,31 +2395,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1.880505369359367</v>
+        <v>653.0344450655127</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3122,10 +2441,10 @@
         <v>41</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>-12</v>
@@ -3134,7 +2453,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3143,7 +2462,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-385134.5446362677</v>
+        <v>-919.6842383380812</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3162,22 +2481,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-13</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3186,7 +2505,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>1065664.588540925</v>
+        <v>-20321.13669078379</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3205,22 +2524,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3229,7 +2548,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>53235.36666219644</v>
+        <v>55100.83695528878</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3248,13 +2567,13 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
         <v>-14</v>
@@ -3263,7 +2582,7 @@
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3272,7 +2591,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>-1328510.333736661</v>
+        <v>-66115.99062831128</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3291,22 +2610,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -3315,7 +2634,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>627034.7104623513</v>
+        <v>2797.29290088054</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -3334,22 +2653,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E15" t="n">
-        <v>-5</v>
+        <v>-15</v>
       </c>
       <c r="F15" t="s">
         <v>22</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="H15" t="n">
         <v>4</v>
@@ -3358,7 +2677,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>-3.589680052973563</v>
+        <v>29633.51932191673</v>
       </c>
       <c r="K15" t="s"/>
       <c r="L15" t="s"/>
@@ -3482,27 +2801,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2504662789780915</v>
+        <v>0.2312232426623144</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.138792785267355e-07</v>
+        <v>3.747650039093946e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006433344997174763</v>
+        <v>0.0006121805321221793</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9159972670892121</v>
+        <v>0.9267949776162343</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9137030748038335</v>
+        <v>0.9247956807864256</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>83.05803423840946</v>
+        <v>64.05043296663844</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -3535,7 +2854,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1205693862629646</v>
+        <v>-0.1182841794022801</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -3554,22 +2873,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
         <v>30</v>
       </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -3578,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04691201544629242</v>
+        <v>0.7844945010145952</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -3597,31 +2916,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-9</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>197.8805669983687</v>
+        <v>-2.785137919604787</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -3640,22 +2959,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -3664,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>646182.7123634472</v>
+        <v>87.29058773766678</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -3683,22 +3002,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-14</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -3707,7 +3026,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-1230549.395124382</v>
+        <v>-203.7378825143199</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -3726,31 +3045,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
-        <v>-13</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>37</v>
-      </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>730812.3799126602</v>
+        <v>5522.123570593916</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -3769,31 +3088,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-7</v>
+        <v>-10</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-24.55487450740681</v>
+        <v>646.8743545410777</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -3812,22 +3131,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
         <v>40</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-12</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -3836,7 +3155,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-164845.3840838386</v>
+        <v>-911.9034837300924</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -3855,22 +3174,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -3879,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>62910.46505231259</v>
+        <v>-504.7767513190753</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -3898,22 +3217,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-11</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -3922,7 +3241,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-7567.121007720358</v>
+        <v>811.0652480866175</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -3941,22 +3260,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-2</v>
+        <v>-10</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -3965,7 +3284,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06649443204514682</v>
+        <v>-428.8914715599603</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -3984,22 +3303,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="D14" t="s">
         <v>25</v>
       </c>
       <c r="E14" t="n">
-        <v>-15</v>
+        <v>-9</v>
       </c>
       <c r="F14" t="s">
         <v>22</v>
       </c>
       <c r="G14" t="s">
-        <v>73</v>
+        <v>59</v>
       </c>
       <c r="H14" t="n">
         <v>4</v>
@@ -4008,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.332959577906877</v>
+        <v>74.46037145506398</v>
       </c>
       <c r="K14" t="s"/>
       <c r="L14" t="s"/>
@@ -4108,13 +3427,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4123,36 +3442,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2396644125729392</v>
+        <v>-0.1152364142642138</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.219796992045053e-07</v>
+        <v>3.754181379687906e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.000649599645323568</v>
+        <v>0.0006127137488001967</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9143531705858019</v>
+        <v>0.9266673971513057</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9121985333678346</v>
+        <v>0.9248225517966217</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>92.93434032311521</v>
+        <v>64.07966352939425</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4161,22 +3480,22 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
         <v>4</v>
@@ -4185,7 +3504,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1167907269550005</v>
+        <v>0.7584465003272</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4204,13 +3523,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -4219,16 +3538,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.04684179585279138</v>
+        <v>0.2270976257026184</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4247,31 +3566,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1919.103659014859</v>
+        <v>-2.701653099608204</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4290,31 +3609,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I6" t="n">
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.708131613220282</v>
+        <v>89.66214239464441</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4333,22 +3652,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4357,7 +3676,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>620105.1162217081</v>
+        <v>-224.7126609705266</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4376,31 +3695,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E8" t="n">
-        <v>-14</v>
+        <v>-13</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-1180580.95149168</v>
+        <v>2237.704698048373</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -4419,22 +3738,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -4443,7 +3762,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>701000.048555878</v>
+        <v>295.7468348040557</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -4462,22 +3781,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>28</v>
-      </c>
       <c r="E10" t="n">
-        <v>-11</v>
+        <v>-14</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -4486,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-158078.8786223031</v>
+        <v>-756.1128053984585</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -4505,22 +3824,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-10</v>
+        <v>-12</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -4529,7 +3848,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>60317.64936872653</v>
+        <v>-188.7971480206915</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -4548,22 +3867,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-9</v>
+        <v>-13</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -4572,7 +3891,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>-7252.665492117405</v>
+        <v>624.0368260855307</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -4591,22 +3910,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E13" t="n">
-        <v>-2</v>
+        <v>-14</v>
       </c>
       <c r="F13" t="s">
         <v>22</v>
       </c>
       <c r="G13" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="H13" t="n">
         <v>4</v>
@@ -4615,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06045598327182233</v>
+        <v>-516.0763790026517</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -4715,13 +4034,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -4730,36 +4049,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.06283494443285129</v>
+        <v>0.2259670245383914</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.244580017007568e-07</v>
+        <v>3.814911967991513e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006515044141836315</v>
+        <v>0.0006176497363386074</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9138501635654799</v>
+        <v>0.925481111337591</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9118676359487859</v>
+        <v>0.9237662415148159</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>95.39316868546035</v>
+        <v>71.78154131196385</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -4792,7 +4111,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1214286174522528</v>
+        <v>-0.112914293452152</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -4811,31 +4130,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2366065871095129</v>
+        <v>0.6010018962342321</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -4854,31 +4173,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-14</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>5795.765519339129</v>
+        <v>-21.40641383760923</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -4897,22 +4216,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -4921,7 +4240,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-14336.93732804216</v>
+        <v>91.73270187633283</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -4940,22 +4259,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -4964,7 +4283,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>158522.4270718881</v>
+        <v>-123.0710021077214</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -4983,31 +4302,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
         <v>28</v>
       </c>
-      <c r="E8" t="n">
-        <v>-12</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-698386.419881539</v>
+        <v>5908.406342099043</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5026,22 +4345,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-13</v>
+        <v>-9</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -5050,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1529812.29516495</v>
+        <v>153.0795781455309</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5069,22 +4388,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5093,7 +4412,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-1664858.689591167</v>
+        <v>-870.2936256161971</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5112,22 +4431,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-7</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="H11" t="n">
         <v>4</v>
@@ -5136,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>719936.8619622485</v>
+        <v>0.8631669167516167</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5155,22 +4474,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" t="s">
         <v>25</v>
       </c>
       <c r="E12" t="n">
-        <v>-15</v>
+        <v>-6</v>
       </c>
       <c r="F12" t="s">
         <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" t="n">
         <v>4</v>
@@ -5179,7 +4498,7 @@
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>3.562921075565983</v>
+        <v>-0.5407128899237112</v>
       </c>
       <c r="K12" t="s"/>
       <c r="L12" t="s"/>
@@ -5279,13 +4598,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -5294,7 +4613,7 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="H2" t="n">
         <v>4</v>
@@ -5303,27 +4622,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0620430576248765</v>
+        <v>-0.1155824179945939</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.347035592846857e-07</v>
+        <v>3.865698218598969e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006593205284872341</v>
+        <v>0.0006217473939309251</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9117706807744871</v>
+        <v>0.9244890740412256</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9099287325651861</v>
+        <v>0.9229126455243409</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>108.1969170783309</v>
+        <v>78.10931073353488</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5332,13 +4651,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -5347,16 +4666,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.1195760554270329</v>
+        <v>0.2319938565192282</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5375,31 +4694,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F4" t="s">
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2322826621084255</v>
+        <v>0.6225849663253729</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5418,31 +4737,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-15</v>
+        <v>-4</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>18128.03107599044</v>
+        <v>-23.61495546718012</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5461,22 +4780,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="n">
-        <v>-10</v>
+        <v>-5</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="H6" t="n">
         <v>4</v>
@@ -5485,7 +4804,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-13073.48807349517</v>
+        <v>107.7436614232552</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -5504,22 +4823,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -5528,7 +4847,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>144247.7648034182</v>
+        <v>-162.5749022884077</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -5547,22 +4866,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-12</v>
+        <v>-8</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -5571,7 +4890,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-634848.0830730277</v>
+        <v>138.876125540054</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -5590,13 +4909,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
         <v>-13</v>
@@ -5605,16 +4924,16 @@
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="H9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1390231.348783333</v>
+        <v>8853.089963089331</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -5633,22 +4952,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>-14</v>
+        <v>-15</v>
       </c>
       <c r="F10" t="s">
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -5657,7 +4976,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>-1513269.116330022</v>
+        <v>-667.1883746152391</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -5676,31 +4995,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E11" t="n">
-        <v>-15</v>
+        <v>-11</v>
       </c>
       <c r="F11" t="s">
         <v>22</v>
       </c>
       <c r="G11" t="s">
-        <v>41</v>
+        <v>75</v>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>654738.5023114951</v>
+        <v>-999.5189325127202</v>
       </c>
       <c r="K11" t="s"/>
       <c r="L11" t="s"/>
@@ -5824,27 +5143,27 @@
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1217032467553667</v>
+        <v>-0.1211961875215709</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.401404185733276e-07</v>
+        <v>3.983411360933755e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006634307941099265</v>
+        <v>0.0006311427224434862</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9106671922395621</v>
+        <v>0.9221897149416325</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9089922020940538</v>
+        <v>0.9207307720967881</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>114.648097627561</v>
+        <v>93.97627823051316</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -5853,31 +5172,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2442536318349389</v>
+        <v>0.8753780099460104</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -5896,13 +5215,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -5911,16 +5230,16 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.06074389675322678</v>
+        <v>0.2365912615351381</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -5939,31 +5258,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="E5" t="n">
-        <v>-12</v>
+        <v>-3</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I5" t="n">
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>1250.557084487558</v>
+        <v>-3.600065932475931</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -5982,22 +5301,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-15</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -6006,7 +5325,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.601439145198462</v>
+        <v>16672.25638153473</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6025,16 +5344,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
         <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-12</v>
+        <v>-5</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
@@ -6049,7 +5368,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-401.5955558867489</v>
+        <v>24.49611027198083</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6068,22 +5387,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-7</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6092,7 +5411,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1440.399014844601</v>
+        <v>-166.7098556873818</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6111,22 +5430,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-8</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>73</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6135,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-1290.978484679961</v>
+        <v>209.7092838686529</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6154,13 +5473,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
         <v>-15</v>
@@ -6169,7 +5488,7 @@
         <v>22</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="H10" t="n">
         <v>4</v>
@@ -6178,7 +5497,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.707831512856059</v>
+        <v>-688.2989179203427</v>
       </c>
       <c r="K10" t="s"/>
       <c r="L10" t="s"/>
@@ -6278,13 +5597,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6293,36 +5612,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.118578547377373</v>
+        <v>0.2407790894575636</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.460420488702477e-07</v>
+        <v>3.98907819350217e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006678637951485675</v>
+        <v>0.0006315914972117793</v>
       </c>
       <c r="N2" t="n">
-        <v>0.9094693717655941</v>
+        <v>0.9220790214135046</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9079636648510925</v>
+        <v>0.920783038401671</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>121.7501748471113</v>
+        <v>93.95978036225831</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6331,13 +5650,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6346,16 +5665,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2381383557552884</v>
+        <v>-0.1200992577660625</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6377,10 +5696,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6389,7 +5708,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6398,7 +5717,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05911580255971874</v>
+        <v>0.05985599887444702</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6420,7 +5739,7 @@
         <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
@@ -6432,7 +5751,7 @@
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6441,7 +5760,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>8586.374721854972</v>
+        <v>9674.534477534999</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6460,22 +5779,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-6</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
       </c>
       <c r="G6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H6" t="n">
         <v>1</v>
@@ -6484,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-1.292056531850289</v>
+        <v>-39.22546060689119</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6503,22 +5822,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
       <c r="E7" t="n">
-        <v>-11</v>
+        <v>-7</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6527,7 +5846,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>-58.11942112713924</v>
+        <v>-0.7347639488924489</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6546,22 +5865,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
-        <v>-13</v>
+        <v>-8</v>
       </c>
       <c r="F8" t="s">
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -6570,7 +5889,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>554.2402748421982</v>
+        <v>1.281810531213145</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
@@ -6589,22 +5908,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E9" t="n">
-        <v>-14</v>
+        <v>-12</v>
       </c>
       <c r="F9" t="s">
         <v>22</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="H9" t="n">
         <v>4</v>
@@ -6613,7 +5932,7 @@
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>-657.4719723446597</v>
+        <v>0.4812335672840887</v>
       </c>
       <c r="K9" t="s"/>
       <c r="L9" t="s"/>
@@ -6713,13 +6032,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E2" t="n">
         <v>-1</v>
@@ -6728,36 +6047,36 @@
         <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.1187498495140731</v>
+        <v>0.2353754482515161</v>
       </c>
       <c r="K2" t="s"/>
       <c r="L2" t="n">
-        <v>4.471903755490922e-07</v>
+        <v>4.01532180527971e-07</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0006687229437884513</v>
+        <v>0.0006336656693619839</v>
       </c>
       <c r="N2" t="n">
-        <v>0.909236302403821</v>
+        <v>0.9215663897196258</v>
       </c>
       <c r="O2" t="n">
-        <v>0.9079181574179844</v>
+        <v>0.9204273123919026</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="n">
-        <v>122.5231004797342</v>
+        <v>96.88240370894204</v>
       </c>
       <c r="U2" t="s"/>
     </row>
@@ -6766,13 +6085,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
         <v>-1</v>
@@ -6781,16 +6100,16 @@
         <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2373951777849803</v>
+        <v>-0.1173968480108527</v>
       </c>
       <c r="K3" t="s"/>
       <c r="L3" t="s"/>
@@ -6812,10 +6131,10 @@
         <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E4" t="n">
         <v>-1</v>
@@ -6824,7 +6143,7 @@
         <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>
@@ -6833,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>0.05944939402022445</v>
+        <v>0.05852201065966792</v>
       </c>
       <c r="K4" t="s"/>
       <c r="L4" t="s"/>
@@ -6852,22 +6171,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="n">
-        <v>-13</v>
+        <v>-15</v>
       </c>
       <c r="F5" t="s">
         <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="H5" t="n">
         <v>1</v>
@@ -6876,7 +6195,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>4235.05477415629</v>
+        <v>25405.12400307688</v>
       </c>
       <c r="K5" t="s"/>
       <c r="L5" t="s"/>
@@ -6895,7 +6214,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
         <v>80</v>
@@ -6904,7 +6223,7 @@
         <v>21</v>
       </c>
       <c r="E6" t="n">
-        <v>-8</v>
+        <v>-9</v>
       </c>
       <c r="F6" t="s">
         <v>22</v>
@@ -6919,7 +6238,7 @@
         <v>1</v>
       </c>
       <c r="J6" t="n">
-        <v>-16.39949366674159</v>
+        <v>-35.30227759100804</v>
       </c>
       <c r="K6" t="s"/>
       <c r="L6" t="s"/>
@@ -6938,22 +6257,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" t="n">
-        <v>-9</v>
+        <v>-6</v>
       </c>
       <c r="F7" t="s">
         <v>22</v>
       </c>
       <c r="G7" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H7" t="n">
         <v>4</v>
@@ -6962,7 +6281,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>5.181887054811977</v>
+        <v>-0.1668414166108073</v>
       </c>
       <c r="K7" t="s"/>
       <c r="L7" t="s"/>
@@ -6984,10 +6303,10 @@
         <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" t="n">
         <v>-8</v>
@@ -6996,7 +6315,7 @@
         <v>22</v>
       </c>
       <c r="G8" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H8" t="n">
         <v>4</v>
@@ -7005,7 +6324,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>-2.837513134294451</v>
+        <v>0.5171874857852696</v>
       </c>
       <c r="K8" t="s"/>
       <c r="L8" t="s"/>
